--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cntn2-Cntnap2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cntn2-Cntnap2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cntnap2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.300673</v>
+        <v>0.05028033333333334</v>
       </c>
       <c r="H2">
-        <v>0.9020189999999999</v>
+        <v>0.150841</v>
       </c>
       <c r="I2">
-        <v>0.8563978311374756</v>
+        <v>0.1252715694221136</v>
       </c>
       <c r="J2">
-        <v>0.8563978311374756</v>
+        <v>0.1252715694221136</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.004484333333333333</v>
+        <v>0.00217</v>
       </c>
       <c r="N2">
-        <v>0.013453</v>
+        <v>0.00651</v>
       </c>
       <c r="O2">
-        <v>0.02504551868965749</v>
+        <v>0.01227840867296996</v>
       </c>
       <c r="P2">
-        <v>0.02504551868965748</v>
+        <v>0.01227840867296996</v>
       </c>
       <c r="Q2">
-        <v>0.001348317956333333</v>
+        <v>0.0001091083233333333</v>
       </c>
       <c r="R2">
-        <v>0.012134861607</v>
+        <v>0.0009819749100000001</v>
       </c>
       <c r="S2">
-        <v>0.02144892788553578</v>
+        <v>0.001538135524469038</v>
       </c>
       <c r="T2">
-        <v>0.02144892788553578</v>
+        <v>0.001538135524469038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.300673</v>
+        <v>0.05028033333333334</v>
       </c>
       <c r="H3">
-        <v>0.9020189999999999</v>
+        <v>0.150841</v>
       </c>
       <c r="I3">
-        <v>0.8563978311374756</v>
+        <v>0.1252715694221136</v>
       </c>
       <c r="J3">
-        <v>0.8563978311374756</v>
+        <v>0.1252715694221136</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.265941</v>
       </c>
       <c r="O3">
-        <v>0.4951037155910356</v>
+        <v>0.5015871399229346</v>
       </c>
       <c r="P3">
-        <v>0.4951037155910355</v>
+        <v>0.5015871399229346</v>
       </c>
       <c r="Q3">
-        <v>0.026653759431</v>
+        <v>0.004457200709</v>
       </c>
       <c r="R3">
-        <v>0.2398838348789999</v>
+        <v>0.040114806381</v>
       </c>
       <c r="S3">
-        <v>0.4240057482202684</v>
+        <v>0.0628346082200953</v>
       </c>
       <c r="T3">
-        <v>0.4240057482202684</v>
+        <v>0.06283460822009529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.300673</v>
+        <v>0.05028033333333334</v>
       </c>
       <c r="H4">
-        <v>0.9020189999999999</v>
+        <v>0.150841</v>
       </c>
       <c r="I4">
-        <v>0.8563978311374756</v>
+        <v>0.1252715694221136</v>
       </c>
       <c r="J4">
-        <v>0.8563978311374756</v>
+        <v>0.1252715694221136</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>0.257748</v>
       </c>
       <c r="O4">
-        <v>0.479850765719307</v>
+        <v>0.4861344514040954</v>
       </c>
       <c r="P4">
-        <v>0.479850765719307</v>
+        <v>0.4861344514040954</v>
       </c>
       <c r="Q4">
-        <v>0.025832621468</v>
+        <v>0.004319885118666667</v>
       </c>
       <c r="R4">
-        <v>0.2324935932119999</v>
+        <v>0.038878966068</v>
       </c>
       <c r="S4">
-        <v>0.4109431550316714</v>
+        <v>0.06089882567754925</v>
       </c>
       <c r="T4">
-        <v>0.4109431550316714</v>
+        <v>0.06089882567754924</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.300673</v>
+      </c>
+      <c r="H5">
+        <v>0.9020189999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.7491155307811899</v>
+      </c>
+      <c r="J5">
+        <v>0.7491155307811898</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.05041733333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.151252</v>
-      </c>
-      <c r="I5">
-        <v>0.1436021688625245</v>
-      </c>
-      <c r="J5">
-        <v>0.1436021688625245</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.004484333333333333</v>
+        <v>0.00217</v>
       </c>
       <c r="N5">
-        <v>0.013453</v>
+        <v>0.00651</v>
       </c>
       <c r="O5">
-        <v>0.02504551868965749</v>
+        <v>0.01227840867296996</v>
       </c>
       <c r="P5">
-        <v>0.02504551868965748</v>
+        <v>0.01227840867296996</v>
       </c>
       <c r="Q5">
-        <v>0.0002260881284444444</v>
+        <v>0.00065246041</v>
       </c>
       <c r="R5">
-        <v>0.002034793156</v>
+        <v>0.00587214369</v>
       </c>
       <c r="S5">
-        <v>0.003596590804121708</v>
+        <v>0.009197946630200259</v>
       </c>
       <c r="T5">
-        <v>0.003596590804121706</v>
+        <v>0.009197946630200255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05041733333333333</v>
+        <v>0.300673</v>
       </c>
       <c r="H6">
-        <v>0.151252</v>
+        <v>0.9020189999999999</v>
       </c>
       <c r="I6">
-        <v>0.1436021688625245</v>
+        <v>0.7491155307811899</v>
       </c>
       <c r="J6">
-        <v>0.1436021688625245</v>
+        <v>0.7491155307811898</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.265941</v>
       </c>
       <c r="O6">
-        <v>0.4951037155910356</v>
+        <v>0.5015871399229346</v>
       </c>
       <c r="P6">
-        <v>0.4951037155910355</v>
+        <v>0.5015871399229346</v>
       </c>
       <c r="Q6">
-        <v>0.004469345348</v>
+        <v>0.026653759431</v>
       </c>
       <c r="R6">
-        <v>0.040224108132</v>
+        <v>0.2398838348789999</v>
       </c>
       <c r="S6">
-        <v>0.07109796737076719</v>
+        <v>0.3757467165563881</v>
       </c>
       <c r="T6">
-        <v>0.07109796737076716</v>
+        <v>0.375746716556388</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05041733333333333</v>
+        <v>0.300673</v>
       </c>
       <c r="H7">
-        <v>0.151252</v>
+        <v>0.9020189999999999</v>
       </c>
       <c r="I7">
-        <v>0.1436021688625245</v>
+        <v>0.7491155307811899</v>
       </c>
       <c r="J7">
-        <v>0.1436021688625245</v>
+        <v>0.7491155307811898</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,208 @@
         <v>0.257748</v>
       </c>
       <c r="O7">
-        <v>0.479850765719307</v>
+        <v>0.4861344514040954</v>
       </c>
       <c r="P7">
-        <v>0.479850765719307</v>
+        <v>0.4861344514040954</v>
       </c>
       <c r="Q7">
+        <v>0.025832621468</v>
+      </c>
+      <c r="R7">
+        <v>0.2324935932119999</v>
+      </c>
+      <c r="S7">
+        <v>0.3641708675946015</v>
+      </c>
+      <c r="T7">
+        <v>0.3641708675946014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05041733333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.151252</v>
+      </c>
+      <c r="I8">
+        <v>0.1256128997966967</v>
+      </c>
+      <c r="J8">
+        <v>0.1256128997966967</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.00217</v>
+      </c>
+      <c r="N8">
+        <v>0.00651</v>
+      </c>
+      <c r="O8">
+        <v>0.01227840867296996</v>
+      </c>
+      <c r="P8">
+        <v>0.01227840867296996</v>
+      </c>
+      <c r="Q8">
+        <v>0.0001094056133333333</v>
+      </c>
+      <c r="R8">
+        <v>0.00098465052</v>
+      </c>
+      <c r="S8">
+        <v>0.001542326518300667</v>
+      </c>
+      <c r="T8">
+        <v>0.001542326518300667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05041733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.151252</v>
+      </c>
+      <c r="I9">
+        <v>0.1256128997966967</v>
+      </c>
+      <c r="J9">
+        <v>0.1256128997966967</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.08864699999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.265941</v>
+      </c>
+      <c r="O9">
+        <v>0.5015871399229346</v>
+      </c>
+      <c r="P9">
+        <v>0.5015871399229346</v>
+      </c>
+      <c r="Q9">
+        <v>0.004469345348</v>
+      </c>
+      <c r="R9">
+        <v>0.040224108132</v>
+      </c>
+      <c r="S9">
+        <v>0.06300581514645126</v>
+      </c>
+      <c r="T9">
+        <v>0.06300581514645125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.05041733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.151252</v>
+      </c>
+      <c r="I10">
+        <v>0.1256128997966967</v>
+      </c>
+      <c r="J10">
+        <v>0.1256128997966967</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.08591599999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.257748</v>
+      </c>
+      <c r="O10">
+        <v>0.4861344514040954</v>
+      </c>
+      <c r="P10">
+        <v>0.4861344514040954</v>
+      </c>
+      <c r="Q10">
         <v>0.004331655610666667</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>0.03898490049599999</v>
       </c>
-      <c r="S7">
-        <v>0.06890761068763561</v>
-      </c>
-      <c r="T7">
-        <v>0.06890761068763558</v>
+      <c r="S10">
+        <v>0.06106475813194475</v>
+      </c>
+      <c r="T10">
+        <v>0.06106475813194474</v>
       </c>
     </row>
   </sheetData>
